--- a/biology/Zoologie/Association_des_zoos_et_aquariums_(Amérique_du_Nord)/Association_des_zoos_et_aquariums_(Amérique_du_Nord).xlsx
+++ b/biology/Zoologie/Association_des_zoos_et_aquariums_(Amérique_du_Nord)/Association_des_zoos_et_aquariums_(Amérique_du_Nord).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_des_zoos_et_aquariums_(Am%C3%A9rique_du_Nord)</t>
+          <t>Association_des_zoos_et_aquariums_(Amérique_du_Nord)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association des zoos et aquariums, en anglais Association of Zoos and Aquariums (AZA), précédemment nommée Association américaine des zoos et aquariums (American Zoo and Aquarium Association), est une organisation sans but lucratif dédiée à favoriser l'avancement des parcs zoologiques et des aquariums nord-américains dans les domaines de la conservation, de l'éducation, de la science et des loisirs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_des_zoos_et_aquariums_(Am%C3%A9rique_du_Nord)</t>
+          <t>Association_des_zoos_et_aquariums_(Amérique_du_Nord)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Organisation et objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les statuts de l'organisation énoncent que : 
 L'AZA  utilise son accréditation d'institution, ses initiatives dans les soins aux animaux, ses programmes d'éducation et de conservation, sa recherche de collaboration et son lobbying politique en vue d'atteindre cet objectif.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_des_zoos_et_aquariums_(Am%C3%A9rique_du_Nord)</t>
+          <t>Association_des_zoos_et_aquariums_(Amérique_du_Nord)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'AZA a été fondée en 1924 et a commencé comme l'Association américaine des parcs zoologiques et aquariums (AAZPA ou American Association of Zoological Parks and Aquariums). L'organisme a été créé pour fournir un forum professionnel pour le personnel des zoos et des aquariums nord-américains afin de discuter de leurs animaux. En 1971, l'AAZPA acquit un statut indépendant et a commencé à travailler à la conservation des animaux.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_des_zoos_et_aquariums_(Am%C3%A9rique_du_Nord)</t>
+          <t>Association_des_zoos_et_aquariums_(Amérique_du_Nord)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Accréditation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association américaine des zoos et des aquariums a élaboré une définition pour les jardins zoologiques et aquariums dans le cadre de ses normes d'accréditation : « Une institution culturelle permanente qui possède et maintient en captivité des animaux sauvages qui représentent plus qu'une collection de marque et, sous la direction d'un personnel professionnel, fournit des soins appropriés à sa collection et les exposent d'une manière esthétique au public sur une base régulière. Ils doivent également être définis comme ayant pour activité principale l'exhibition, la conservation et la préservation de la faune de la Terre d'une manière éducative et scientifique ».
 </t>
